--- a/artfynd/A 32064-2022.xlsx
+++ b/artfynd/A 32064-2022.xlsx
@@ -683,7 +683,7 @@
         <v>112352526</v>
       </c>
       <c r="B2" t="n">
-        <v>85210</v>
+        <v>85224</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>112354257</v>
       </c>
       <c r="B3" t="n">
-        <v>90273</v>
+        <v>90287</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>

--- a/artfynd/A 32064-2022.xlsx
+++ b/artfynd/A 32064-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112352526</v>
+        <v>112354257</v>
       </c>
       <c r="B2" t="n">
-        <v>85224</v>
+        <v>90287</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3762</v>
+        <v>232138</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Gul lammticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Albatrellus citrinus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>Ryman</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112354257</v>
+        <v>112352526</v>
       </c>
       <c r="B3" t="n">
-        <v>90287</v>
+        <v>85224</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>232138</v>
+        <v>3762</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gul lammticka</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Albatrellus citrinus</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ryman</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
